--- a/Bill of Materials/Bill of Materials.xlsx
+++ b/Bill of Materials/Bill of Materials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferrerx\Desktop\Sport analyzer\Sport Analyzer 1.0.1\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferrerx\Documents\GitHub\Sport_Analyzer\Bill of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t>Component</t>
   </si>
@@ -284,9 +284,6 @@
     <t>136-5467</t>
   </si>
   <si>
-    <t>Middle cover</t>
-  </si>
-  <si>
     <t>9V Battery holder</t>
   </si>
   <si>
@@ -300,6 +297,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Middle cover 1</t>
+  </si>
+  <si>
+    <t>Middle cover 2</t>
   </si>
 </sst>
 </file>
@@ -652,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:I40"/>
+  <dimension ref="D5:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -722,11 +725,9 @@
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -734,7 +735,7 @@
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>40</v>
@@ -746,7 +747,7 @@
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>40</v>
@@ -757,619 +758,631 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="3">
-        <v>27.41</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <f>H11*G11</f>
-        <v>27.41</v>
-      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G12" s="3">
-        <v>16.670000000000002</v>
+        <v>27.41</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" ref="I12:I39" si="0">H12*G12</f>
-        <v>16.670000000000002</v>
+        <f>H12*G12</f>
+        <v>27.41</v>
       </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="G13" s="3">
-        <v>0.374</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.374</v>
+        <f t="shared" ref="I13:I40" si="0">H13*G13</f>
+        <v>16.670000000000002</v>
       </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="G14" s="3">
-        <v>1.36</v>
+        <v>0.374</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
-        <v>2.72</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D15" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>0.58599999999999997</v>
+        <v>1.36</v>
       </c>
       <c r="H15" s="3">
         <v>2</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
-        <v>1.1719999999999999</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G16" s="3">
-        <v>1.7000000000000001E-2</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="H16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="0"/>
-        <v>8.5000000000000006E-2</v>
+        <v>1.1719999999999999</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="3">
-        <v>0.14199999999999999</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H17" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="0"/>
-        <v>0.14199999999999999</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" s="3">
-        <v>0.05</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="H18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G19" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="0"/>
-        <v>4.5999999999999999E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D20" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="3">
-        <v>0.55000000000000004</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D21" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G21" s="3">
-        <v>0.05</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G22" s="3">
-        <v>0.16400000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="0"/>
-        <v>0.16400000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D23" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G23" s="3">
-        <v>5.1999999999999998E-2</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="0"/>
-        <v>5.1999999999999998E-2</v>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D24" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G24" s="3">
-        <v>6.7000000000000004E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="0"/>
-        <v>6.7000000000000004E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D25" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G25" s="3">
-        <v>0.5</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D26" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G26" s="3">
-        <v>0.35220000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="0"/>
-        <v>0.35220000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D27" s="3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G27" s="3">
-        <v>0.06</v>
+        <v>0.35220000000000001</v>
       </c>
       <c r="H27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.35220000000000001</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D28" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G28" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H28" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D29" s="3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G29" s="3">
-        <v>0.107</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H29" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="0"/>
-        <v>0.64200000000000002</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D30" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="4">
-        <v>2070346</v>
+        <v>7</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G30" s="3">
-        <v>1.92</v>
+        <v>0.107</v>
       </c>
       <c r="H30" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="0"/>
-        <v>3.84</v>
+        <v>0.64200000000000002</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D31" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2070346</v>
       </c>
       <c r="G31" s="3">
-        <v>0.34949999999999998</v>
+        <v>1.92</v>
       </c>
       <c r="H31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" s="3">
-        <f>H31*G31</f>
-        <v>1.0485</v>
+        <f t="shared" si="0"/>
+        <v>3.84</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D32" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G32" s="3">
-        <v>16.989999999999998</v>
+        <v>0.34949999999999998</v>
       </c>
       <c r="H32" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="0"/>
-        <v>16.989999999999998</v>
+        <f>H32*G32</f>
+        <v>1.0485</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G33" s="3">
-        <v>32.5</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="0"/>
-        <v>32.5</v>
+        <v>16.989999999999998</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G34" s="3">
-        <v>29.09</v>
+        <v>32.5</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" si="0"/>
-        <v>29.09</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D35" s="3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="3">
+        <v>29.09</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="0"/>
+        <v>29.09</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G36" s="3">
         <f>11.09/2</f>
         <v>5.5449999999999999</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H36" s="3">
         <v>2</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I36" s="3">
         <f t="shared" si="0"/>
         <v>11.09</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="3">
-        <v>7.2939999999999996</v>
-      </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3">
-        <f t="shared" si="0"/>
-        <v>7.2939999999999996</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D37" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G37" s="3">
-        <v>3</v>
+        <v>7.2939999999999996</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7.2939999999999996</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D38" s="3" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G38" s="3">
-        <v>7.33</v>
+        <v>3</v>
       </c>
       <c r="H38" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" si="0"/>
-        <v>14.66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="3">
+        <v>7.33</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="0"/>
+        <v>14.66</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3">
+      <c r="F40" s="3"/>
+      <c r="G40" s="3">
         <v>0.47</v>
       </c>
-      <c r="H39" s="3">
-        <v>1</v>
-      </c>
-      <c r="I39" s="3">
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="H40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I40" s="1">
-        <f>SUM(I11:I39)</f>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="H41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="1">
+        <f>SUM(I12:I40)</f>
         <v>172.02870000000001</v>
       </c>
     </row>

--- a/Bill of Materials/Bill of Materials.xlsx
+++ b/Bill of Materials/Bill of Materials.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>Component</t>
   </si>
@@ -66,9 +66,6 @@
     <t>RJ12 cable</t>
   </si>
   <si>
-    <t>Brass M3 threaded inserts</t>
-  </si>
-  <si>
     <t>https://www.amazon.co.uk/Wisamic-Incremental-Encoder-Dc5-24v-Voltage/dp/B015GYY7XU/ref=sr_1_5?crid=2WH2KV5IBPO23&amp;dchild=1&amp;keywords=incremental+rotary+encoder&amp;qid=1618663428&amp;sprefix=incremental+rotary+%2Caps%2C129&amp;sr=8-5</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Pushbutton Omron B3F-1020</t>
   </si>
   <si>
-    <t>278-534</t>
-  </si>
-  <si>
     <t>SC13983</t>
   </si>
   <si>
@@ -120,18 +114,6 @@
     <t>182-8551</t>
   </si>
   <si>
-    <t>914-1652</t>
-  </si>
-  <si>
-    <t>Long M3 countersunk screws</t>
-  </si>
-  <si>
-    <t>Short M3 countersunk screws</t>
-  </si>
-  <si>
-    <t>528-946</t>
-  </si>
-  <si>
     <t>https://www.china-encoder.com/product/economic-version-bsl-ga55-encoder-draw-wire-mechanism/</t>
   </si>
   <si>
@@ -157,9 +139,6 @@
   </si>
   <si>
     <t>Encoder Base</t>
-  </si>
-  <si>
-    <t>Front cover</t>
   </si>
   <si>
     <t>264-4646</t>
@@ -275,9 +254,6 @@
     <t>JLCPCB</t>
   </si>
   <si>
-    <t>Back cover</t>
-  </si>
-  <si>
     <t>Magnet</t>
   </si>
   <si>
@@ -299,17 +275,35 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Middle cover 1</t>
-  </si>
-  <si>
-    <t>Middle cover 2</t>
+    <t>https://www.amazon.co.uk/ANTHYTA-Standoff-Assorted-Assortment-Threaded/dp/B091KJNZLB/ref=sr_1_19?dchild=1&amp;keywords=M3+hexagon+spacer&amp;qid=1634066425&amp;qsid=257-8279358-2489441&amp;sr=8-19&amp;sres=B09FDHGG12%2CB06XQ33Y9X%2CB08YYMWS6H%2CB07TBHXH29%2CB09FGWQMNY%2CB09GVR3MDD%2CB08X15DV2M%2CB083GLDQXQ%2CB09FGX454M%2CB09HKDV2PH%2CB075XFDSD8%2CB00NQ9KPIY%2CB09HPMS4GS%2CB07TP27SDY%2CB091KJNZLB%2CB01M30AF1T%2CB0811R9TWX%2CB07V2L3BM3%2CB08R4F3L55%2CB07WBVMCYW</t>
+  </si>
+  <si>
+    <t>M3 hexagonal spacers and screws</t>
+  </si>
+  <si>
+    <t>18-2990</t>
+  </si>
+  <si>
+    <t>Case middle 1</t>
+  </si>
+  <si>
+    <t>Case middle 2</t>
+  </si>
+  <si>
+    <t>Case bottom</t>
+  </si>
+  <si>
+    <t>Case top</t>
+  </si>
+  <si>
+    <t>https://github.com/XaviCanoFerrer/Sport_Analyzer/tree/main/Manufacturing%20files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +325,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -340,7 +342,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -363,11 +365,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -375,8 +415,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -655,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:I41"/>
+  <dimension ref="D5:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,24 +730,24 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2">
         <f>3.55/10</f>
@@ -713,60 +763,74 @@
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.35">
@@ -777,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="3">
         <v>27.41</v>
@@ -795,10 +859,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="3">
         <v>16.670000000000002</v>
@@ -807,19 +871,19 @@
         <v>1</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" ref="I13:I40" si="0">H13*G13</f>
+        <f t="shared" ref="I13:I38" si="0">H13*G13</f>
         <v>16.670000000000002</v>
       </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D14" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G14" s="3">
         <v>0.374</v>
@@ -855,13 +919,13 @@
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" s="3">
         <v>0.58599999999999997</v>
@@ -876,13 +940,13 @@
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D17" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G17" s="3">
         <v>1.7000000000000001E-2</v>
@@ -897,13 +961,13 @@
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G18" s="3">
         <v>0.14199999999999999</v>
@@ -918,13 +982,13 @@
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G19" s="3">
         <v>0.05</v>
@@ -939,13 +1003,13 @@
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D20" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G20" s="3">
         <v>4.5999999999999999E-2</v>
@@ -960,13 +1024,13 @@
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D21" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G21" s="3">
         <v>0.55000000000000004</v>
@@ -981,13 +1045,13 @@
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D22" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G22" s="3">
         <v>0.05</v>
@@ -1002,13 +1066,13 @@
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D23" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G23" s="3">
         <v>0.16400000000000001</v>
@@ -1023,13 +1087,13 @@
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D24" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G24" s="3">
         <v>5.1999999999999998E-2</v>
@@ -1044,13 +1108,13 @@
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D25" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G25" s="3">
         <v>6.7000000000000004E-2</v>
@@ -1065,13 +1129,13 @@
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D26" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G26" s="3">
         <v>0.5</v>
@@ -1086,13 +1150,13 @@
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D27" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G27" s="3">
         <v>0.35220000000000001</v>
@@ -1107,288 +1171,254 @@
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D28" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2070346</v>
       </c>
       <c r="G28" s="3">
-        <v>0.06</v>
+        <v>1.92</v>
       </c>
       <c r="H28" s="3">
         <v>2</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D29" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G29" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.34949999999999998</v>
       </c>
       <c r="H29" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <f>H29*G29</f>
+        <v>1.0485</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G30" s="3">
-        <v>0.107</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="H30" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="0"/>
-        <v>0.64200000000000002</v>
+        <v>16.989999999999998</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D31" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="4">
-        <v>2070346</v>
+        <v>15</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="G31" s="3">
-        <v>1.92</v>
+        <v>32.5</v>
       </c>
       <c r="H31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="0"/>
-        <v>3.84</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D32" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G32" s="3">
-        <v>0.34949999999999998</v>
+        <v>29.09</v>
       </c>
       <c r="H32" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32" s="3">
-        <f>H32*G32</f>
-        <v>1.0485</v>
+        <f t="shared" si="0"/>
+        <v>29.09</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" s="3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G33" s="3">
-        <v>16.989999999999998</v>
+        <f>11.09/2</f>
+        <v>5.5449999999999999</v>
       </c>
       <c r="H33" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="0"/>
-        <v>16.989999999999998</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" s="3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G34" s="3">
-        <v>32.5</v>
+        <v>7.2939999999999996</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" si="0"/>
-        <v>32.5</v>
+        <v>7.2939999999999996</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D35" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G35" s="3">
-        <v>29.09</v>
+        <v>3</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="0"/>
-        <v>29.09</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D36" s="3" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G36" s="3">
-        <f>11.09/2</f>
-        <v>5.5449999999999999</v>
+        <v>7.33</v>
       </c>
       <c r="H36" s="3">
         <v>2</v>
       </c>
       <c r="I36" s="3">
         <f t="shared" si="0"/>
-        <v>11.09</v>
+        <v>14.66</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D37" s="3" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G37" s="3">
-        <v>7.2939999999999996</v>
+        <v>8.99</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="0"/>
-        <v>7.2939999999999996</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D38" s="3" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G38" s="3">
-        <v>3</v>
+        <v>0.48</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G39" s="3">
-        <v>7.33</v>
-      </c>
-      <c r="H39" s="3">
-        <v>2</v>
-      </c>
-      <c r="I39" s="3">
-        <f t="shared" si="0"/>
-        <v>14.66</v>
-      </c>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3">
-        <v>0.47</v>
-      </c>
-      <c r="H40" s="3">
-        <v>1</v>
-      </c>
-      <c r="I40" s="3">
-        <f t="shared" si="0"/>
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="H41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I41" s="1">
-        <f>SUM(I12:I40)</f>
-        <v>172.02870000000001</v>
+      <c r="H39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I39" s="1">
+        <f>SUM(I12:I38)</f>
+        <v>179.98670000000001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F7:F11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Bill of Materials/Bill of Materials.xlsx
+++ b/Bill of Materials/Bill of Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11540" windowHeight="5860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11537" windowHeight="5863"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
   <si>
     <t>Component</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Incremental encoder</t>
-  </si>
-  <si>
-    <t>Incremental encoder draw-wire mechanism</t>
   </si>
   <si>
     <t>Loac cell</t>
@@ -297,6 +294,12 @@
   </si>
   <si>
     <t>https://github.com/XaviCanoFerrer/Sport_Analyzer/tree/main/Manufacturing%20files</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005002782719866.html</t>
+  </si>
+  <si>
+    <t>CALT BSL-GA55 Draw-Wire Mechanism</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -424,6 +427,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -705,21 +709,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:I39"/>
+  <dimension ref="D5:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="49.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.61328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.61328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,24 +734,24 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G6" s="2">
         <f>3.55/10</f>
@@ -761,15 +765,15 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
@@ -777,12 +781,12 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
@@ -791,12 +795,12 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="2"/>
@@ -805,12 +809,12 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
@@ -819,12 +823,12 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="2"/>
@@ -833,7 +837,7 @@
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D12" s="3" t="s">
         <v>1</v>
       </c>
@@ -841,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="3">
         <v>27.41</v>
@@ -854,15 +858,15 @@
         <v>27.41</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="3">
         <v>16.670000000000002</v>
@@ -871,19 +875,19 @@
         <v>1</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" ref="I13:I38" si="0">H13*G13</f>
+        <f t="shared" ref="I13:I39" si="0">H13*G13</f>
         <v>16.670000000000002</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="G14" s="3">
         <v>0.374</v>
@@ -896,7 +900,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
@@ -917,15 +921,15 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="3">
         <v>0.58599999999999997</v>
@@ -938,15 +942,15 @@
         <v>1.1719999999999999</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="3">
         <v>1.7000000000000001E-2</v>
@@ -959,15 +963,15 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="3">
         <v>0.14199999999999999</v>
@@ -980,15 +984,15 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="G19" s="3">
         <v>0.05</v>
@@ -1001,15 +1005,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="G20" s="3">
         <v>4.5999999999999999E-2</v>
@@ -1022,15 +1026,15 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="3">
         <v>0.55000000000000004</v>
@@ -1043,15 +1047,15 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="3">
         <v>0.05</v>
@@ -1064,15 +1068,15 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="G23" s="3">
         <v>0.16400000000000001</v>
@@ -1085,15 +1089,15 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="G24" s="3">
         <v>5.1999999999999998E-2</v>
@@ -1106,15 +1110,15 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="G25" s="3">
         <v>6.7000000000000004E-2</v>
@@ -1127,15 +1131,15 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="G26" s="3">
         <v>0.5</v>
@@ -1148,15 +1152,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="G27" s="3">
         <v>0.35220000000000001</v>
@@ -1169,12 +1173,12 @@
         <v>0.35220000000000001</v>
       </c>
     </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D28" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" s="4">
         <v>2070346</v>
@@ -1190,15 +1194,15 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G29" s="3">
         <v>0.34949999999999998</v>
@@ -1211,15 +1215,15 @@
         <v>1.0485</v>
       </c>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" s="3">
         <v>16.989999999999998</v>
@@ -1232,15 +1236,15 @@
         <v>16.989999999999998</v>
       </c>
     </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D31" s="3" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G31" s="3">
         <v>32.5</v>
@@ -1249,164 +1253,172 @@
         <v>1</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="0"/>
+        <f>H31*G31</f>
         <v>32.5</v>
       </c>
     </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D32" s="3" t="s">
-        <v>11</v>
-      </c>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.4">
       <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="3">
         <v>29.09</v>
       </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
         <f t="shared" si="0"/>
         <v>29.09</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D33" s="3" t="s">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="G34" s="3">
         <f>11.09/2</f>
         <v>5.5449999999999999</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H34" s="3">
         <v>2</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I34" s="3">
         <f t="shared" si="0"/>
         <v>11.09</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D34" s="3" t="s">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="G35" s="3">
         <v>7.2939999999999996</v>
       </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-      <c r="I34" s="3">
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3">
         <f t="shared" si="0"/>
         <v>7.2939999999999996</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D35" s="3" t="s">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="G36" s="3">
         <v>3</v>
       </c>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D36" s="3" t="s">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="G37" s="3">
+        <v>7.33</v>
+      </c>
+      <c r="H37" s="3">
+        <v>2</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="0"/>
+        <v>14.66</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="3">
+        <v>8.99</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="0"/>
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D39" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="3">
-        <v>7.33</v>
-      </c>
-      <c r="H36" s="3">
-        <v>2</v>
-      </c>
-      <c r="I36" s="3">
-        <f t="shared" si="0"/>
-        <v>14.66</v>
-      </c>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D37" s="3" t="s">
+      <c r="E39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="3">
-        <v>8.99</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1</v>
-      </c>
-      <c r="I37" s="3">
-        <f t="shared" si="0"/>
-        <v>8.99</v>
-      </c>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D38" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="G39" s="3">
         <v>0.48</v>
       </c>
-      <c r="H38" s="3">
-        <v>1</v>
-      </c>
-      <c r="I38" s="3">
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="H39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I39" s="1">
-        <f>SUM(I12:I38)</f>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="H40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" s="1">
+        <f>SUM(I12:I39)</f>
         <v>179.98670000000001</v>
       </c>
     </row>
@@ -1416,9 +1428,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1"/>
+    <hyperlink ref="F32" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1428,7 +1441,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
